--- a/Examples/sofc/sofc_model.xlsx
+++ b/Examples/sofc/sofc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\sofc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\sofc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD64BC-1B7F-49E5-8F2D-6193A64597F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5DCA1C-B0B8-4718-A307-A2805BB3077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$7</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>key</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Gases Stack</t>
-  </si>
-  <si>
-    <t>Flow</t>
   </si>
   <si>
     <t>R8500</t>
@@ -1203,16 +1200,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1225,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1234,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1251,7 +1248,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1268,7 +1265,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,7 +1273,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1285,7 +1282,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,7 +1290,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1302,7 +1299,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1319,7 +1316,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,7 +1324,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -1336,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,7 +1341,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -1353,7 +1350,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1361,7 +1358,7 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -1370,7 +1367,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -1387,7 +1384,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1395,7 +1392,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1404,7 +1401,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1409,7 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1421,7 +1418,7 @@
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,7 +1426,7 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1438,7 +1435,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1447,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1463,9 +1460,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1474,55 +1469,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2839,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
